--- a/Excel/Exceldata.xlsx
+++ b/Excel/Exceldata.xlsx
@@ -71,24 +71,24 @@
     <t>C:\Users\Pandiyan\eclipse-workspace\Grootan\Folder1\Contactus.png</t>
   </si>
   <si>
+    <t>Images are same</t>
+  </si>
+  <si>
+    <t>C:\Users\Pandiyan\eclipse-workspace\Grootan\Folder2\Home.png</t>
+  </si>
+  <si>
     <t>Images are not same</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>C:\Users\Pandiyan\eclipse-workspace\Grootan\Folder2\Home.png</t>
-  </si>
-  <si>
     <t>C:\Users\Pandiyan\eclipse-workspace\Grootan\Folder2\Services.png</t>
   </si>
   <si>
     <t>C:\Users\Pandiyan\eclipse-workspace\Grootan\Folder2\Opensource.png</t>
   </si>
   <si>
-    <t>Images are same</t>
-  </si>
-  <si>
     <t>C:\Users\Pandiyan\eclipse-workspace\Grootan\Folder2\Blog.png</t>
   </si>
   <si>
@@ -101,6 +101,9 @@
     <t>C:\Users\Pandiyan\eclipse-workspace\Grootan\Folder2\Contactus.png</t>
   </si>
   <si>
+    <t>C:\Users\Pandiyan\eclipse-workspace\Grootan\Comparison\CTO.pngandC:\Users\Pandiyan\eclipse-workspace\Grootan\Comparison\HR.png</t>
+  </si>
+  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -144,9 +147,6 @@
   </si>
   <si>
     <t>Priya R</t>
-  </si>
-  <si>
-    <t>C:\Users\Pandiyan\eclipse-workspace\Grootan\Comparison\CTO.pngandC:\Users\Pandiyan\eclipse-workspace\Grootan\Comparison\HR.png</t>
   </si>
 </sst>
 </file>
@@ -156,10 +156,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +190,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -198,12 +212,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -211,8 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,11 +249,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,53 +304,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +344,42 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -354,6 +390,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,31 +420,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,133 +552,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,17 +584,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,43 +661,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,152 +686,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,10 +840,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,14 +1171,14 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="60.4285714285714" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.5714285714286" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="68.5714285714286" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="60.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="68.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1151,169 +1192,169 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" t="s" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s" s="8">
         <v>27</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="6">
-        <v>18</v>
+      <c r="A16" t="s" s="9">
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s" s="7">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1328,125 +1369,125 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.2857142857143" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="28.5714285714286" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="31.2857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
